--- a/Metode penelitian Skripsi.xlsx
+++ b/Metode penelitian Skripsi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4C145-607B-4B01-AFA4-23782B4A2611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCAD9C-4846-48EE-BEB1-662474510319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{24E9A487-15DF-4577-95BF-8288844F23AB}"/>
   </bookViews>
   <sheets>
     <sheet name="NSM Fix" sheetId="4" r:id="rId1"/>
@@ -3242,7 +3242,7 @@
   </sheetPr>
   <dimension ref="B1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4172,7 +4172,7 @@
   </sheetPr>
   <dimension ref="A4:AC62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -6232,16 +6232,18 @@
   </sheetPr>
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X49" sqref="X49"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="53"/>
     <col min="2" max="2" width="3.7109375" style="63" customWidth="1"/>
-    <col min="3" max="26" width="3.7109375" style="53" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="53"/>
+    <col min="3" max="39" width="3.7109375" style="53" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="53"/>
+    <col min="41" max="46" width="3.7109375" style="53" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -8135,8 +8137,8 @@
   </sheetPr>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
